--- a/results/mp/tinybert/corona/confidence/126/0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,76 +43,73 @@
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>shortage</t>
+    <t>stop</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
@@ -121,196 +118,223 @@
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>sharing</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>security</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>online</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>food</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
-    <t>co</t>
+    <t>in</t>
   </si>
   <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -668,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,13 +761,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -787,13 +811,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -829,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -837,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -855,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -887,13 +911,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.88</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -905,31 +929,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L6">
+        <v>56</v>
+      </c>
+      <c r="M6">
+        <v>56</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6">
-        <v>0.9375</v>
-      </c>
-      <c r="L6">
-        <v>30</v>
-      </c>
-      <c r="M6">
-        <v>30</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -937,13 +961,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7272727272727273</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -955,31 +979,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <v>0.9375</v>
-      </c>
-      <c r="L7">
-        <v>15</v>
-      </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -987,13 +1011,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7058823529411765</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1005,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1029,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1037,13 +1061,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6883116883116883</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C9">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1055,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1079,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1087,7 +1111,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5416666666666666</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1105,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1129,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1137,13 +1161,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4375</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1155,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1179,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4285714285714285</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1205,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1229,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1237,49 +1261,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3809523809523809</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>149</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="L13">
+        <v>31</v>
+      </c>
+      <c r="M13">
+        <v>31</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>8</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>13</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1287,13 +1311,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3605150214592275</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="C14">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1305,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1329,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1337,13 +1361,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3103448275862069</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1355,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.8627450980392157</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1379,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,13 +1411,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2962962962962963</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1405,579 +1429,435 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>336</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L16">
+        <v>45</v>
+      </c>
+      <c r="M16">
+        <v>45</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>18</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.7253521126760564</v>
+      </c>
+      <c r="L20">
+        <v>103</v>
+      </c>
+      <c r="M20">
+        <v>103</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L21">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L22">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="L23">
+        <v>86</v>
+      </c>
+      <c r="M23">
+        <v>86</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L24">
+        <v>75</v>
+      </c>
+      <c r="M24">
+        <v>75</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.68125</v>
+      </c>
+      <c r="L25">
+        <v>109</v>
+      </c>
+      <c r="M25">
+        <v>109</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L26">
+        <v>60</v>
+      </c>
+      <c r="M26">
+        <v>60</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="L27">
+        <v>32</v>
+      </c>
+      <c r="M27">
+        <v>32</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>19</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L16">
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M16">
-        <v>48</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="C17">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>64</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L17">
-        <v>23</v>
-      </c>
-      <c r="M17">
-        <v>23</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.225</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>62</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L18">
-        <v>45</v>
-      </c>
-      <c r="M18">
-        <v>45</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="K28">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L28">
+        <v>17</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.6031746031746031</v>
+      </c>
+      <c r="L29">
+        <v>38</v>
+      </c>
+      <c r="M29">
+        <v>38</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
         <v>30</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L19">
-        <v>24</v>
-      </c>
-      <c r="M19">
-        <v>24</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="C20">
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31">
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>21</v>
       </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>114</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L20">
-        <v>42</v>
-      </c>
-      <c r="M20">
-        <v>42</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>95</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.05376344086021505</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>176</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L25">
-        <v>10</v>
-      </c>
-      <c r="M25">
-        <v>10</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K26">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L26">
-        <v>13</v>
-      </c>
-      <c r="M26">
-        <v>13</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27">
-        <v>0.76</v>
-      </c>
-      <c r="L27">
-        <v>19</v>
-      </c>
-      <c r="M27">
-        <v>19</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28">
-        <v>0.75</v>
-      </c>
-      <c r="L28">
-        <v>9</v>
-      </c>
-      <c r="M28">
-        <v>9</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L29">
-        <v>43</v>
-      </c>
-      <c r="M29">
-        <v>43</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30">
-        <v>0.7123287671232876</v>
-      </c>
-      <c r="L30">
-        <v>52</v>
-      </c>
-      <c r="M30">
-        <v>52</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31">
-        <v>0.7</v>
-      </c>
-      <c r="L31">
-        <v>7</v>
-      </c>
-      <c r="M31">
-        <v>7</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K32">
-        <v>0.6923076923076923</v>
+        <v>0.5483028720626631</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1989,47 +1869,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.64</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L33">
+        <v>18</v>
+      </c>
+      <c r="M33">
+        <v>18</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>16</v>
-      </c>
-      <c r="M33">
-        <v>16</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>9</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2041,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.6153846153846154</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2067,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.6060606060606061</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2093,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.5446009389671361</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L37">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2119,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.5416666666666666</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L38">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2145,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.5384615384615384</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2171,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.5333333333333333</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2197,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.5294117647058824</v>
+        <v>0.4508474576271186</v>
       </c>
       <c r="L41">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="M41">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2223,21 +2103,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.5263157894736842</v>
+        <v>0.45</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2249,21 +2129,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2275,21 +2155,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2301,21 +2181,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.4961240310077519</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L45">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M45">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2327,15 +2207,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.4642857142857143</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L46">
         <v>13</v>
@@ -2353,21 +2233,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.4285714285714285</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2379,21 +2259,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.4166666666666667</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L48">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="M48">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2405,21 +2285,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.4090909090909091</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L49">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2431,21 +2311,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.4054054054054054</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2457,21 +2337,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.391304347826087</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2483,21 +2363,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.3684210526315789</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2509,21 +2389,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.36</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="L53">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2535,21 +2415,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K54">
-        <v>0.3125</v>
+        <v>0.05502392344497608</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2561,21 +2441,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K55">
-        <v>0.1851851851851852</v>
+        <v>0.04921700223713647</v>
       </c>
       <c r="L55">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="M55">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2587,21 +2467,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>44</v>
+        <v>850</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K56">
-        <v>0.04146341463414634</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2613,21 +2493,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K57">
-        <v>0.04040404040404041</v>
+        <v>0.03473491773308958</v>
       </c>
       <c r="L57">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2639,21 +2519,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>190</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K58">
-        <v>0.03947368421052631</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2665,47 +2545,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>438</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K59">
-        <v>0.03349282296650718</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L59">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>202</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K60">
-        <v>0.0187793427230047</v>
+        <v>0.0325</v>
       </c>
       <c r="L60">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="M60">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2717,21 +2597,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>418</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K61">
-        <v>0.01678657074340528</v>
+        <v>0.02996670366259711</v>
       </c>
       <c r="L61">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2743,21 +2623,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>820</v>
+        <v>874</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K62">
-        <v>0.01576576576576576</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="L62">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2769,73 +2649,73 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>437</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K63">
-        <v>0.01408450704225352</v>
+        <v>0.02732793522267207</v>
       </c>
       <c r="L63">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="M63">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>630</v>
+        <v>961</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K64">
-        <v>0.01186623516720604</v>
+        <v>0.02246349681767128</v>
       </c>
       <c r="L64">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="M64">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="N64">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>916</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K65">
-        <v>0.01154249737670514</v>
+        <v>0.02050113895216401</v>
       </c>
       <c r="L65">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M65">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2847,189 +2727,553 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>942</v>
+        <v>860</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K66">
-        <v>0.01089449541284404</v>
+        <v>0.02003081664098613</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N66">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O66">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1725</v>
+        <v>636</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K67">
-        <v>0.0106951871657754</v>
+        <v>0.0196319018404908</v>
       </c>
       <c r="L67">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="N67">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1110</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K68">
-        <v>0.008872651356993737</v>
+        <v>0.01947236180904523</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>1899</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K69">
-        <v>0.008519701810436636</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="L69">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M69">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>931</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K70">
-        <v>0.006539235412474849</v>
+        <v>0.01688311688311688</v>
       </c>
       <c r="L70">
         <v>13</v>
       </c>
       <c r="M70">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N70">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1975</v>
+        <v>757</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K71">
-        <v>0.005758157389635317</v>
+        <v>0.01641414141414142</v>
       </c>
       <c r="L71">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="M71">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N71">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O71">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1554</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K72">
+        <v>0.01590909090909091</v>
+      </c>
+      <c r="L72">
+        <v>14</v>
+      </c>
+      <c r="M72">
+        <v>16</v>
+      </c>
+      <c r="N72">
+        <v>0.88</v>
+      </c>
+      <c r="O72">
+        <v>0.12</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K73">
+        <v>0.01526011560693642</v>
+      </c>
+      <c r="L73">
+        <v>66</v>
+      </c>
+      <c r="M73">
+        <v>69</v>
+      </c>
+      <c r="N73">
+        <v>0.96</v>
+      </c>
+      <c r="O73">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K74">
+        <v>0.01518438177874186</v>
+      </c>
+      <c r="L74">
+        <v>35</v>
+      </c>
+      <c r="M74">
+        <v>39</v>
+      </c>
+      <c r="N74">
+        <v>0.9</v>
+      </c>
+      <c r="O74">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K75">
+        <v>0.01504513540621866</v>
+      </c>
+      <c r="L75">
+        <v>15</v>
+      </c>
+      <c r="M75">
+        <v>17</v>
+      </c>
+      <c r="N75">
+        <v>0.88</v>
+      </c>
+      <c r="O75">
+        <v>0.12</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K76">
+        <v>0.01499423298731257</v>
+      </c>
+      <c r="L76">
+        <v>13</v>
+      </c>
+      <c r="M76">
+        <v>13</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K77">
+        <v>0.0134297520661157</v>
+      </c>
+      <c r="L77">
+        <v>13</v>
+      </c>
+      <c r="M77">
+        <v>13</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K72">
-        <v>0.00438871473354232</v>
-      </c>
-      <c r="L72">
-        <v>7</v>
-      </c>
-      <c r="M72">
-        <v>9</v>
-      </c>
-      <c r="N72">
-        <v>0.78</v>
-      </c>
-      <c r="O72">
-        <v>0.22</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>1588</v>
+      <c r="K78">
+        <v>0.01301561874249099</v>
+      </c>
+      <c r="L78">
+        <v>65</v>
+      </c>
+      <c r="M78">
+        <v>67</v>
+      </c>
+      <c r="N78">
+        <v>0.97</v>
+      </c>
+      <c r="O78">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K79">
+        <v>0.01247248716067498</v>
+      </c>
+      <c r="L79">
+        <v>17</v>
+      </c>
+      <c r="M79">
+        <v>17</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K80">
+        <v>0.01230228471001757</v>
+      </c>
+      <c r="L80">
+        <v>14</v>
+      </c>
+      <c r="M80">
+        <v>16</v>
+      </c>
+      <c r="N80">
+        <v>0.88</v>
+      </c>
+      <c r="O80">
+        <v>0.12</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K81">
+        <v>0.01160541586073501</v>
+      </c>
+      <c r="L81">
+        <v>36</v>
+      </c>
+      <c r="M81">
+        <v>41</v>
+      </c>
+      <c r="N81">
+        <v>0.88</v>
+      </c>
+      <c r="O81">
+        <v>0.12</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K82">
+        <v>0.01122019635343618</v>
+      </c>
+      <c r="L82">
+        <v>24</v>
+      </c>
+      <c r="M82">
+        <v>28</v>
+      </c>
+      <c r="N82">
+        <v>0.86</v>
+      </c>
+      <c r="O82">
+        <v>0.14</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K83">
+        <v>0.01007166376137904</v>
+      </c>
+      <c r="L83">
+        <v>52</v>
+      </c>
+      <c r="M83">
+        <v>54</v>
+      </c>
+      <c r="N83">
+        <v>0.96</v>
+      </c>
+      <c r="O83">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K84">
+        <v>0.009272137227630969</v>
+      </c>
+      <c r="L84">
+        <v>20</v>
+      </c>
+      <c r="M84">
+        <v>21</v>
+      </c>
+      <c r="N84">
+        <v>0.95</v>
+      </c>
+      <c r="O84">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K85">
+        <v>0.005941213258286429</v>
+      </c>
+      <c r="L85">
+        <v>19</v>
+      </c>
+      <c r="M85">
+        <v>22</v>
+      </c>
+      <c r="N85">
+        <v>0.86</v>
+      </c>
+      <c r="O85">
+        <v>0.14</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K86">
+        <v>0.005852842809364548</v>
+      </c>
+      <c r="L86">
+        <v>14</v>
+      </c>
+      <c r="M86">
+        <v>16</v>
+      </c>
+      <c r="N86">
+        <v>0.88</v>
+      </c>
+      <c r="O86">
+        <v>0.12</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>2378</v>
       </c>
     </row>
   </sheetData>
